--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="948">
   <si>
     <t>anchor score</t>
   </si>
@@ -301,583 +301,583 @@
     <t>l</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>uncertain</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>rather</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>wearing</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>valuable</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>uncertain</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>rather</t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>europe</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>wearing</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>needs</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>services</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>goods</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>valuable</t>
   </si>
   <si>
     <t>gift</t>
@@ -3223,10 +3223,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3405,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K5">
         <v>0.9322033898305084</v>
@@ -3455,7 +3455,7 @@
         <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K6">
         <v>0.9166666666666666</v>
@@ -3605,7 +3605,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K9">
         <v>0.8267716535433071</v>
@@ -3655,7 +3655,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K10">
         <v>0.8076923076923077</v>
@@ -3755,7 +3755,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K12">
         <v>0.7777777777777778</v>
@@ -3805,7 +3805,7 @@
         <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K13">
         <v>0.7579617834394905</v>
@@ -3855,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K14">
         <v>0.6984126984126984</v>
@@ -3905,7 +3905,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K15">
         <v>0.6923076923076923</v>
@@ -3955,7 +3955,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K16">
         <v>0.6842105263157895</v>
@@ -4055,28 +4055,28 @@
         <v>159</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.6565217391304348</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L18">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4105,28 +4105,28 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="K19">
-        <v>0.6538461538461539</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N19">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O19">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4155,28 +4155,28 @@
         <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.6521739130434783</v>
+        <v>0.64</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4205,28 +4205,28 @@
         <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="K21">
-        <v>0.64</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="N21">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4255,7 +4255,7 @@
         <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K22">
         <v>0.6263736263736264</v>
@@ -4405,7 +4405,7 @@
         <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K25">
         <v>0.5882352941176471</v>
@@ -4505,7 +4505,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K27">
         <v>0.5815602836879432</v>
@@ -4555,7 +4555,7 @@
         <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K28">
         <v>0.5714285714285714</v>
@@ -4605,28 +4605,28 @@
         <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="K29">
-        <v>0.5579268292682927</v>
+        <v>0.546875</v>
       </c>
       <c r="L29">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="N29">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O29">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>145</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4655,28 +4655,28 @@
         <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>184</v>
+        <v>287</v>
       </c>
       <c r="K30">
-        <v>0.546875</v>
+        <v>0.538235294117647</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4805,7 +4805,7 @@
         <v>6</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K33">
         <v>0.4567474048442907</v>
@@ -4855,7 +4855,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K34">
         <v>0.4558823529411765</v>
@@ -5155,7 +5155,7 @@
         <v>7</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K40">
         <v>0.4252873563218391</v>
@@ -5255,7 +5255,7 @@
         <v>19</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K42">
         <v>0.4109947643979058</v>
@@ -6055,7 +6055,7 @@
         <v>11</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K58">
         <v>0.3333333333333333</v>
@@ -6355,7 +6355,7 @@
         <v>6</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K64">
         <v>0.3333333333333333</v>
@@ -6605,7 +6605,7 @@
         <v>6</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K69">
         <v>0.3125</v>
@@ -6805,7 +6805,7 @@
         <v>7</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K73">
         <v>0.2962962962962963</v>
@@ -6955,7 +6955,7 @@
         <v>14</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K76">
         <v>0.2857142857142857</v>
@@ -7005,7 +7005,7 @@
         <v>454</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K77">
         <v>0.2857142857142857</v>
@@ -7355,7 +7355,7 @@
         <v>16</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K84">
         <v>0.2777777777777778</v>
@@ -7405,7 +7405,7 @@
         <v>16</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K85">
         <v>0.2758620689655172</v>
@@ -7605,7 +7605,7 @@
         <v>26</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K89">
         <v>0.2666666666666667</v>
@@ -7634,25 +7634,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1022727272727273</v>
+        <v>0.1</v>
       </c>
       <c r="C90">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="E90">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>331</v>
@@ -7687,10 +7687,10 @@
         <v>0.1</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>332</v>
@@ -7884,13 +7884,13 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -7902,10 +7902,10 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K95">
         <v>0.25</v>
@@ -7934,13 +7934,13 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.09677419354838709</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>336</v>
@@ -7990,16 +7990,16 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
         <v>10</v>
@@ -8040,16 +8040,16 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>10</v>
@@ -8090,16 +8090,16 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>10</v>
@@ -8140,13 +8140,13 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F100">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
@@ -8155,7 +8155,7 @@
         <v>10</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K100">
         <v>0.2395833333333333</v>
@@ -8190,13 +8190,13 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E101">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F101">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
@@ -8240,13 +8240,13 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E102">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F102">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
@@ -8255,7 +8255,7 @@
         <v>10</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K102">
         <v>0.2347417840375587</v>
@@ -8290,13 +8290,13 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E103">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F103">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
@@ -8305,7 +8305,7 @@
         <v>10</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K103">
         <v>0.2307692307692308</v>
@@ -8340,16 +8340,16 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>10</v>
@@ -8384,25 +8384,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>342</v>
@@ -8440,13 +8440,13 @@
         <v>2</v>
       </c>
       <c r="D106">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E106">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F106">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
@@ -8490,22 +8490,22 @@
         <v>2</v>
       </c>
       <c r="D107">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>21</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K107">
         <v>0.2307692307692308</v>
@@ -8534,13 +8534,13 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>344</v>
@@ -8655,7 +8655,7 @@
         <v>11</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K110">
         <v>0.2241379310344828</v>
@@ -8687,22 +8687,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>346</v>
@@ -8737,25 +8737,25 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E112">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F112">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K112">
         <v>0.2222222222222222</v>
@@ -8784,25 +8784,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.08333333333333333</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E113">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F113">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>347</v>
@@ -8834,25 +8834,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.08108108108108109</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C114">
         <v>3</v>
       </c>
       <c r="D114">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="E114">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>348</v>
@@ -8884,13 +8884,13 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.07894736842105263</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>349</v>
@@ -8934,13 +8934,13 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.07843137254901961</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -8952,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>350</v>
@@ -8990,16 +8990,16 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>12</v>
@@ -9037,25 +9037,25 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K118">
         <v>0.2222222222222222</v>
@@ -9084,25 +9084,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.07692307692307693</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>352</v>
@@ -9134,25 +9134,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.07643312101910828</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="C120">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D120">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>353</v>
@@ -9184,25 +9184,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D121">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>80</v>
@@ -9234,13 +9234,13 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.07272727272727272</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -9252,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K122">
         <v>0.2195121951219512</v>
@@ -9287,22 +9287,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>354</v>
@@ -9340,16 +9340,16 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
         <v>13</v>
@@ -9390,13 +9390,13 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E125">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F125">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         <v>13</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K125">
         <v>0.2173913043478261</v>
@@ -9440,16 +9440,16 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
         <v>13</v>
@@ -9490,16 +9490,16 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>13</v>
@@ -9534,25 +9534,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>358</v>
@@ -9584,25 +9584,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>359</v>
@@ -9634,25 +9634,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>360</v>
@@ -9690,13 +9690,13 @@
         <v>1</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E131">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F131">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
@@ -9705,7 +9705,7 @@
         <v>14</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K131">
         <v>0.2105263157894737</v>
@@ -9790,13 +9790,13 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F133">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
@@ -9840,16 +9840,16 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
         <v>14</v>
@@ -9890,16 +9890,16 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>14</v>
@@ -9934,25 +9934,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>364</v>
@@ -9984,7 +9984,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10002,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>365</v>
@@ -10034,13 +10034,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -10052,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>366</v>
@@ -10134,7 +10134,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10152,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>368</v>
@@ -10184,25 +10184,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>369</v>
@@ -10255,7 +10255,7 @@
         <v>16</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K142">
         <v>0.1971830985915493</v>
@@ -10287,22 +10287,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E143">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="F143">
-        <v>0.5</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>370</v>
@@ -10334,7 +10334,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>371</v>
@@ -10384,25 +10384,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
         <v>3</v>
       </c>
       <c r="E145">
+        <v>0.67</v>
+      </c>
+      <c r="F145">
         <v>0.33</v>
       </c>
-      <c r="F145">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>372</v>
@@ -10484,25 +10484,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>374</v>
@@ -10534,7 +10534,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10552,7 +10552,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>375</v>
@@ -10590,16 +10590,16 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
         <v>18</v>
@@ -10690,13 +10690,13 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E151">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="F151">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
@@ -10784,28 +10784,28 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E153">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F153">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K153">
         <v>0.1835748792270532</v>
@@ -10834,13 +10834,13 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>380</v>
@@ -10884,25 +10884,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E155">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F155">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>381</v>
@@ -10937,22 +10937,22 @@
         <v>0.05</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>382</v>
@@ -10990,13 +10990,13 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E157">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F157">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
@@ -11034,25 +11034,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>384</v>
@@ -11084,25 +11084,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E159">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F159">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>385</v>
@@ -11134,25 +11134,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>386</v>
@@ -11184,7 +11184,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11202,7 +11202,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>387</v>
@@ -11240,13 +11240,13 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="E162">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="F162">
-        <v>0.5</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
@@ -11255,7 +11255,7 @@
         <v>22</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K162">
         <v>0.1764705882352941</v>
@@ -11340,16 +11340,16 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>22</v>
@@ -11384,28 +11384,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.04347826086956522</v>
+        <v>0.04</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E165">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F165">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K165">
         <v>0.1739130434782609</v>
@@ -11434,28 +11434,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.04347826086956522</v>
+        <v>0.04</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K166">
         <v>0.1724137931034483</v>
@@ -11484,25 +11484,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E167">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F167">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>390</v>
@@ -11534,28 +11534,28 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.04</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K168">
         <v>0.1708860759493671</v>
@@ -11584,25 +11584,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.03846153846153846</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D169">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="E169">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F169">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>391</v>
@@ -11634,25 +11634,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>392</v>
@@ -11684,25 +11684,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.03680981595092025</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C171">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F171">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>393</v>
@@ -11740,13 +11740,13 @@
         <v>1</v>
       </c>
       <c r="D172">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E172">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F172">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
@@ -11790,16 +11790,16 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
         <v>27</v>
@@ -11884,25 +11884,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>397</v>
@@ -11934,25 +11934,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.03571428571428571</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E176">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F176">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>398</v>
@@ -11984,25 +11984,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E177">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F177">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>399</v>
@@ -12034,25 +12034,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.03389830508474576</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E178">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F178">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>400</v>
@@ -12084,25 +12084,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E179">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F179">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>401</v>
@@ -12134,25 +12134,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F180">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>402</v>
@@ -12184,25 +12184,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>403</v>
@@ -12234,25 +12234,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.03125</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E182">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="F182">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>404</v>
@@ -12284,25 +12284,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>405</v>
@@ -12334,25 +12334,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03076923076923077</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>406</v>
@@ -12384,25 +12384,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E185">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F185">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>407</v>
@@ -12434,25 +12434,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>408</v>
@@ -12484,25 +12484,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>409</v>
@@ -12534,25 +12534,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>410</v>
@@ -12584,25 +12584,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.02857142857142857</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>411</v>
@@ -12634,13 +12634,13 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.02777777777777778</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -12652,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>412</v>
@@ -12684,25 +12684,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>413</v>
@@ -12734,25 +12734,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02597402597402598</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>414</v>
@@ -12834,28 +12834,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K194">
         <v>0.1558441558441558</v>
@@ -12884,28 +12884,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K195">
         <v>0.1549295774647887</v>
@@ -12940,16 +12940,16 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
         <v>40</v>
@@ -12990,13 +12990,13 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E197">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F197">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         <v>40</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K197">
         <v>0.1538461538461539</v>
@@ -13034,25 +13034,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F198">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>417</v>
@@ -13084,25 +13084,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E199">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F199">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>418</v>
@@ -13134,25 +13134,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E200">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F200">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>419</v>
@@ -13184,25 +13184,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E201">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F201">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>420</v>
@@ -13234,25 +13234,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02325581395348837</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E202">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F202">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>421</v>
@@ -13284,25 +13284,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02325581395348837</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E203">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F203">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>422</v>
@@ -13334,25 +13334,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02173913043478261</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E204">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F204">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>423</v>
@@ -13390,13 +13390,13 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E205">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F205">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
@@ -13405,7 +13405,7 @@
         <v>47</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K205">
         <v>0.1503759398496241</v>
@@ -13434,25 +13434,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02083333333333333</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E206">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F206">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>424</v>
@@ -13484,25 +13484,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02083333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E207">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F207">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>425</v>
@@ -13534,25 +13534,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0202020202020202</v>
+        <v>0.02</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E208">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F208">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>426</v>
@@ -13584,25 +13584,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E209">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F209">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>427</v>
@@ -13634,25 +13634,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E210">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F210">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>428</v>
@@ -13684,7 +13684,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -13702,7 +13702,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>429</v>
@@ -13734,25 +13734,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.01941747572815534</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E212">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F212">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>430</v>
@@ -13784,25 +13784,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.01923076923076923</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E213">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F213">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>431</v>
@@ -13834,25 +13834,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E214">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F214">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>432</v>
@@ -13890,13 +13890,13 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E215">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F215">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
@@ -13934,25 +13934,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>434</v>
@@ -13984,25 +13984,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E217">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F217">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>435</v>
@@ -14034,7 +14034,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14052,7 +14052,7 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>436</v>
@@ -14084,25 +14084,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E219">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>437</v>
@@ -14134,7 +14134,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14152,7 +14152,7 @@
         <v>0</v>
       </c>
       <c r="H220">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>438</v>
@@ -14184,25 +14184,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>439</v>
@@ -14234,25 +14234,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01694915254237288</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>440</v>
@@ -14284,25 +14284,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="E223">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="F223">
-        <v>0.01000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>441</v>
@@ -14334,25 +14334,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01639344262295082</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E224">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F224">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>442</v>
@@ -14384,25 +14384,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01612903225806452</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E225">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F225">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>443</v>
@@ -14434,25 +14434,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01612903225806452</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E226">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F226">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>444</v>
@@ -14484,25 +14484,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01515151515151515</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E227">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F227">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>445</v>
@@ -14534,28 +14534,28 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01492537313432836</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E228">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F228">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K228">
         <v>0.1428571428571428</v>
@@ -14584,25 +14584,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01418439716312057</v>
+        <v>0.01392757660167131</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D229">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E229">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F229">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>139</v>
+        <v>354</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>446</v>
@@ -14634,25 +14634,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01408450704225352</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E230">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F230">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>447</v>
@@ -14684,25 +14684,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01392757660167131</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C231">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E231">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F231">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>354</v>
+        <v>73</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>448</v>
@@ -14740,13 +14740,13 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E232">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F232">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
@@ -14784,25 +14784,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01351351351351351</v>
+        <v>0.01337792642140468</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D233">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E233">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F233">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>450</v>
@@ -14834,25 +14834,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01351351351351351</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>451</v>
@@ -14884,25 +14884,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01337792642140468</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="C235">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D235">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E235">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F235">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>295</v>
+        <v>163</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>452</v>
@@ -14934,25 +14934,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01265822784810127</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>453</v>
@@ -14984,28 +14984,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01212121212121212</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D237">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E237">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F237">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>163</v>
+        <v>338</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K237">
         <v>0.1386861313868613</v>
@@ -15034,25 +15034,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01204819277108434</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E238">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F238">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>454</v>
@@ -15084,28 +15084,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01169590643274854</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
         <v>4</v>
       </c>
-      <c r="D239">
-        <v>80</v>
-      </c>
       <c r="E239">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F239">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>338</v>
+        <v>88</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K239">
         <v>0.1367521367521368</v>
@@ -15134,25 +15134,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01149425287356322</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E240">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F240">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>455</v>
@@ -15184,25 +15184,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01123595505617977</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E241">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F241">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>456</v>
@@ -15234,25 +15234,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01052631578947368</v>
+        <v>0.01</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E242">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F242">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>457</v>
@@ -15284,25 +15284,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0101010101010101</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E243">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F243">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>458</v>
@@ -15334,28 +15334,28 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E244">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F244">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K244">
         <v>0.1358024691358025</v>
@@ -15384,28 +15384,28 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.009803921568627451</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D245">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E245">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F245">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>101</v>
+        <v>215</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K245">
         <v>0.1333333333333333</v>
@@ -15434,28 +15434,28 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.009708737864077669</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E246">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F246">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K246">
         <v>0.1333333333333333</v>
@@ -15484,25 +15484,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.009216589861751152</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D247">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E247">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F247">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>459</v>
@@ -15534,25 +15534,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.008771929824561403</v>
+        <v>0.008412197686645636</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D248">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E248">
-        <v>0.95</v>
+        <v>0.68</v>
       </c>
       <c r="F248">
-        <v>0.05000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>113</v>
+        <v>943</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>460</v>
@@ -15584,25 +15584,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.008620689655172414</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E249">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H249">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>461</v>
@@ -15634,28 +15634,28 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.008412197686645636</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="C250">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E250">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="F250">
-        <v>0.32</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>943</v>
+        <v>128</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K250">
         <v>0.1297709923664122</v>
@@ -15684,28 +15684,28 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.007936507936507936</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K251">
         <v>0.1290322580645161</v>
@@ -15734,25 +15734,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.007751937984496124</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E252">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F252">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>462</v>
@@ -15784,13 +15784,13 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.007575757575757576</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E253">
         <v>0.96</v>
@@ -15802,7 +15802,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>463</v>
@@ -15834,28 +15834,28 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.007462686567164179</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E254">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K254">
         <v>0.1290322580645161</v>
@@ -15884,25 +15884,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.007092198581560284</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E255">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F255">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>464</v>
@@ -15934,25 +15934,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.006711409395973154</v>
+        <v>0.006230529595015576</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>465</v>
@@ -15984,25 +15984,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.006666666666666667</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E257">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>466</v>
@@ -16034,25 +16034,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.006230529595015576</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="C258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E258">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F258">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>319</v>
+        <v>166</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>467</v>
@@ -16084,25 +16084,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.006024096385542169</v>
+        <v>0.005661348430262481</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259">
-        <v>165</v>
+        <v>1932</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>468</v>
@@ -16134,25 +16134,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.005988023952095809</v>
+        <v>0.004993757802746567</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D260">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E260">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F260">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>166</v>
+        <v>797</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>469</v>
@@ -16184,25 +16184,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.005661348430262481</v>
+        <v>0.004956629491945477</v>
       </c>
       <c r="C261">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D261">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="E261">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F261">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>1932</v>
+        <v>803</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>470</v>
@@ -16234,25 +16234,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.004993757802746567</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="C262">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E262">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F262">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>797</v>
+        <v>216</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>471</v>
@@ -16284,25 +16284,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.004956629491945477</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="C263">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="E263">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F263">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>803</v>
+        <v>225</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>472</v>
@@ -16334,25 +16334,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.004608294930875576</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E264">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F264">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H264">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>473</v>
@@ -16384,25 +16384,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.004424778761061947</v>
+        <v>0.003899326479971641</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D265">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="E265">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F265">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>225</v>
+        <v>2810</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>474</v>
@@ -16434,25 +16434,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.003968253968253968</v>
+        <v>0.003680981595092025</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266">
-        <v>251</v>
+        <v>812</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>475</v>
@@ -16484,13 +16484,13 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.003899326479971641</v>
+        <v>0.00333889816360601</v>
       </c>
       <c r="C267">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D267">
-        <v>297</v>
+        <v>53</v>
       </c>
       <c r="E267">
         <v>0.96</v>
@@ -16502,7 +16502,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>2810</v>
+        <v>597</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>476</v>
@@ -16534,25 +16534,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.003680981595092025</v>
+        <v>0.0028328611898017</v>
       </c>
       <c r="C268">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="E268">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F268">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>812</v>
+        <v>352</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>477</v>
@@ -16584,25 +16584,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.00333889816360601</v>
+        <v>0.002697841726618705</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D269">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E269">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F269">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>597</v>
+        <v>1109</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>478</v>
@@ -16634,28 +16634,28 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.0028328611898017</v>
+        <v>0.002237136465324385</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E270">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F270">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K270">
         <v>0.125</v>
@@ -16684,13 +16684,13 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.002697841726618705</v>
+        <v>0.001886792452830189</v>
       </c>
       <c r="C271">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E271">
         <v>0.9399999999999999</v>
@@ -16702,7 +16702,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>1109</v>
+        <v>529</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>479</v>
@@ -16734,13 +16734,13 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.002237136465324385</v>
+        <v>0.001306762495916367</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D272">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="E272">
         <v>0.97</v>
@@ -16752,7 +16752,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>446</v>
+        <v>3057</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>480</v>
@@ -16779,31 +16779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
-      <c r="A273" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B273">
-        <v>0.001886792452830189</v>
-      </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-      <c r="D273">
-        <v>16</v>
-      </c>
-      <c r="E273">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F273">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273">
-        <v>529</v>
-      </c>
+    <row r="273" spans="10:17">
       <c r="J273" s="1" t="s">
         <v>481</v>
       </c>
@@ -16829,31 +16805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
-      <c r="A274" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B274">
-        <v>0.001306762495916367</v>
-      </c>
-      <c r="C274">
-        <v>4</v>
-      </c>
-      <c r="D274">
-        <v>144</v>
-      </c>
-      <c r="E274">
-        <v>0.97</v>
-      </c>
-      <c r="F274">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274">
-        <v>3057</v>
-      </c>
+    <row r="274" spans="10:17">
       <c r="J274" s="1" t="s">
         <v>482</v>
       </c>
@@ -16879,7 +16831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="10:17">
       <c r="J275" s="1" t="s">
         <v>483</v>
       </c>
@@ -16905,7 +16857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="10:17">
       <c r="J276" s="1" t="s">
         <v>484</v>
       </c>
@@ -16931,7 +16883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="10:17">
       <c r="J277" s="1" t="s">
         <v>485</v>
       </c>
@@ -16957,7 +16909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="10:17">
       <c r="J278" s="1" t="s">
         <v>486</v>
       </c>
@@ -16983,7 +16935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="10:17">
       <c r="J279" s="1" t="s">
         <v>487</v>
       </c>
@@ -17009,7 +16961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="10:17">
       <c r="J280" s="1" t="s">
         <v>488</v>
       </c>
@@ -17035,7 +16987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="10:17">
       <c r="J281" s="1" t="s">
         <v>489</v>
       </c>
@@ -17061,7 +17013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="10:17">
       <c r="J282" s="1" t="s">
         <v>490</v>
       </c>
@@ -17087,7 +17039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="10:17">
       <c r="J283" s="1" t="s">
         <v>491</v>
       </c>
@@ -17113,7 +17065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="10:17">
       <c r="J284" s="1" t="s">
         <v>492</v>
       </c>
@@ -17139,7 +17091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="10:17">
       <c r="J285" s="1" t="s">
         <v>493</v>
       </c>
@@ -17165,7 +17117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="10:17">
       <c r="J286" s="1" t="s">
         <v>494</v>
       </c>
@@ -17191,7 +17143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="10:17">
       <c r="J287" s="1" t="s">
         <v>495</v>
       </c>
@@ -17217,7 +17169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
         <v>496</v>
       </c>
@@ -17505,7 +17457,7 @@
     </row>
     <row r="299" spans="10:17">
       <c r="J299" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K299">
         <v>0.1173708920187793</v>
@@ -17531,7 +17483,7 @@
     </row>
     <row r="300" spans="10:17">
       <c r="J300" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K300">
         <v>0.1171171171171171</v>
@@ -17583,7 +17535,7 @@
     </row>
     <row r="302" spans="10:17">
       <c r="J302" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K302">
         <v>0.1146496815286624</v>
@@ -18285,7 +18237,7 @@
     </row>
     <row r="329" spans="10:17">
       <c r="J329" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K329">
         <v>0.1090909090909091</v>
@@ -18363,7 +18315,7 @@
     </row>
     <row r="332" spans="10:17">
       <c r="J332" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K332">
         <v>0.1081081081081081</v>
@@ -18467,7 +18419,7 @@
     </row>
     <row r="336" spans="10:17">
       <c r="J336" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K336">
         <v>0.1052631578947368</v>
@@ -18597,7 +18549,7 @@
     </row>
     <row r="341" spans="10:17">
       <c r="J341" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K341">
         <v>0.1044943820224719</v>
@@ -18649,7 +18601,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K343">
         <v>0.1041666666666667</v>
@@ -18779,7 +18731,7 @@
     </row>
     <row r="348" spans="10:17">
       <c r="J348" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K348">
         <v>0.1</v>
@@ -19039,7 +18991,7 @@
     </row>
     <row r="358" spans="10:17">
       <c r="J358" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K358">
         <v>0.1</v>
@@ -19585,7 +19537,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K379">
         <v>0.09615384615384616</v>
@@ -19611,7 +19563,7 @@
     </row>
     <row r="380" spans="10:17">
       <c r="J380" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K380">
         <v>0.0957683741648107</v>
@@ -19663,7 +19615,7 @@
     </row>
     <row r="382" spans="10:17">
       <c r="J382" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K382">
         <v>0.09523809523809523</v>
@@ -19741,7 +19693,7 @@
     </row>
     <row r="385" spans="10:17">
       <c r="J385" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K385">
         <v>0.09380863039399624</v>
@@ -19793,7 +19745,7 @@
     </row>
     <row r="387" spans="10:17">
       <c r="J387" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K387">
         <v>0.09237726098191215</v>
@@ -19845,7 +19797,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K389">
         <v>0.09146341463414634</v>
@@ -19897,7 +19849,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K391">
         <v>0.09090909090909091</v>
@@ -20027,7 +19979,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K396">
         <v>0.09090909090909091</v>
@@ -20521,7 +20473,7 @@
     </row>
     <row r="415" spans="10:17">
       <c r="J415" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K415">
         <v>0.08904109589041095</v>
@@ -20625,7 +20577,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K419">
         <v>0.08771929824561403</v>
@@ -20677,7 +20629,7 @@
     </row>
     <row r="421" spans="10:17">
       <c r="J421" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K421">
         <v>0.0873015873015873</v>
@@ -20781,7 +20733,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K425">
         <v>0.08668730650154799</v>
@@ -20859,7 +20811,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K428">
         <v>0.0851063829787234</v>
@@ -21327,7 +21279,7 @@
     </row>
     <row r="446" spans="10:17">
       <c r="J446" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K446">
         <v>0.08069164265129683</v>
@@ -21353,7 +21305,7 @@
     </row>
     <row r="447" spans="10:17">
       <c r="J447" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K447">
         <v>0.08041237113402062</v>
@@ -21483,7 +21435,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K452">
         <v>0.07870370370370371</v>
@@ -21613,7 +21565,7 @@
     </row>
     <row r="457" spans="10:17">
       <c r="J457" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K457">
         <v>0.07692307692307693</v>
@@ -21925,7 +21877,7 @@
     </row>
     <row r="469" spans="10:17">
       <c r="J469" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K469">
         <v>0.0759493670886076</v>
@@ -21951,7 +21903,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K470">
         <v>0.07575757575757576</v>
@@ -22029,7 +21981,7 @@
     </row>
     <row r="473" spans="10:17">
       <c r="J473" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K473">
         <v>0.07407407407407407</v>
@@ -22185,7 +22137,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K479">
         <v>0.07272727272727272</v>
@@ -22679,7 +22631,7 @@
     </row>
     <row r="498" spans="10:17">
       <c r="J498" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K498">
         <v>0.06952491309385864</v>
@@ -22731,7 +22683,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K500">
         <v>0.06896551724137931</v>
@@ -22809,7 +22761,7 @@
     </row>
     <row r="503" spans="10:17">
       <c r="J503" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K503">
         <v>0.06818181818181818</v>
@@ -22861,7 +22813,7 @@
     </row>
     <row r="505" spans="10:17">
       <c r="J505" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K505">
         <v>0.06818181818181818</v>
@@ -23251,7 +23203,7 @@
     </row>
     <row r="520" spans="10:17">
       <c r="J520" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K520">
         <v>0.06666666666666667</v>
@@ -23277,7 +23229,7 @@
     </row>
     <row r="521" spans="10:17">
       <c r="J521" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K521">
         <v>0.06666666666666667</v>
@@ -23589,7 +23541,7 @@
     </row>
     <row r="533" spans="10:17">
       <c r="J533" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K533">
         <v>0.06569343065693431</v>
@@ -23615,7 +23567,7 @@
     </row>
     <row r="534" spans="10:17">
       <c r="J534" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K534">
         <v>0.06481481481481481</v>
@@ -24239,7 +24191,7 @@
     </row>
     <row r="558" spans="10:17">
       <c r="J558" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K558">
         <v>0.06153846153846154</v>
@@ -24369,7 +24321,7 @@
     </row>
     <row r="563" spans="10:17">
       <c r="J563" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K563">
         <v>0.06</v>
@@ -24421,7 +24373,7 @@
     </row>
     <row r="565" spans="10:17">
       <c r="J565" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K565">
         <v>0.05882352941176471</v>
@@ -25747,7 +25699,7 @@
     </row>
     <row r="616" spans="10:17">
       <c r="J616" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K616">
         <v>0.05128205128205128</v>
@@ -25955,7 +25907,7 @@
     </row>
     <row r="624" spans="10:17">
       <c r="J624" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K624">
         <v>0.05</v>
@@ -26215,7 +26167,7 @@
     </row>
     <row r="634" spans="10:17">
       <c r="J634" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K634">
         <v>0.04761904761904762</v>
@@ -26423,7 +26375,7 @@
     </row>
     <row r="642" spans="10:17">
       <c r="J642" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K642">
         <v>0.04761904761904762</v>
@@ -26605,7 +26557,7 @@
     </row>
     <row r="649" spans="10:17">
       <c r="J649" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K649">
         <v>0.04545454545454546</v>
@@ -26683,7 +26635,7 @@
     </row>
     <row r="652" spans="10:17">
       <c r="J652" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K652">
         <v>0.04545454545454546</v>
@@ -26709,7 +26661,7 @@
     </row>
     <row r="653" spans="10:17">
       <c r="J653" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K653">
         <v>0.04545454545454546</v>
@@ -26761,7 +26713,7 @@
     </row>
     <row r="655" spans="10:17">
       <c r="J655" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K655">
         <v>0.04379105411323116</v>
@@ -26813,7 +26765,7 @@
     </row>
     <row r="657" spans="10:17">
       <c r="J657" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K657">
         <v>0.04347826086956522</v>
@@ -26917,7 +26869,7 @@
     </row>
     <row r="661" spans="10:17">
       <c r="J661" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K661">
         <v>0.04347826086956522</v>
@@ -27099,7 +27051,7 @@
     </row>
     <row r="668" spans="10:17">
       <c r="J668" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K668">
         <v>0.04347826086956522</v>
@@ -27203,7 +27155,7 @@
     </row>
     <row r="672" spans="10:17">
       <c r="J672" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K672">
         <v>0.04231433506044905</v>
@@ -27463,7 +27415,7 @@
     </row>
     <row r="682" spans="10:17">
       <c r="J682" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K682">
         <v>0.0410958904109589</v>
@@ -27489,7 +27441,7 @@
     </row>
     <row r="683" spans="10:17">
       <c r="J683" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K683">
         <v>0.04081632653061224</v>
@@ -28113,7 +28065,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K707">
         <v>0.03571428571428571</v>
@@ -28139,7 +28091,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K708">
         <v>0.03571428571428571</v>
@@ -28243,7 +28195,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K712">
         <v>0.03571428571428571</v>
@@ -28269,7 +28221,7 @@
     </row>
     <row r="713" spans="10:17">
       <c r="J713" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K713">
         <v>0.03571428571428571</v>
@@ -28321,7 +28273,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K715">
         <v>0.03571428571428571</v>
@@ -28555,7 +28507,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K724">
         <v>0.03296703296703297</v>
@@ -28737,7 +28689,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K731">
         <v>0.03125</v>
@@ -28867,7 +28819,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K736">
         <v>0.0303030303030303</v>
@@ -29049,7 +29001,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K743">
         <v>0.02857142857142857</v>
@@ -29075,7 +29027,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K744">
         <v>0.02857142857142857</v>
@@ -29179,7 +29131,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K748">
         <v>0.02757352941176471</v>
@@ -29309,7 +29261,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K753">
         <v>0.02666666666666667</v>
@@ -29621,7 +29573,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K765">
         <v>0.02439024390243903</v>
@@ -29777,7 +29729,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K771">
         <v>0.02380952380952381</v>
@@ -29855,7 +29807,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K774">
         <v>0.02352941176470588</v>
@@ -30037,7 +29989,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K781">
         <v>0.0202020202020202</v>
@@ -30167,7 +30119,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K786">
         <v>0.01949860724233983</v>
@@ -30245,7 +30197,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K789">
         <v>0.01770833333333333</v>
